--- a/public/Datadosen/templeate-data.xlsx
+++ b/public/Datadosen/templeate-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Project Prodi ilmu Komputer\Projectilkom\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52867788-3684-4EAA-8BAC-15116ED031BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76160ADC-2794-4F82-B7EE-4926F2F4697D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52F398BB-CA30-49A3-8F06-E67F52D758F7}"/>
   </bookViews>
@@ -34,7 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>azizi</t>
+  </si>
+  <si>
+    <t>dading</t>
+  </si>
   <si>
     <t>nidn</t>
   </si>
@@ -43,81 +49,6 @@
   </si>
   <si>
     <t>nama</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>16.6.235</t>
-  </si>
-  <si>
-    <t>16.6.249</t>
-  </si>
-  <si>
-    <t>06.6.116</t>
-  </si>
-  <si>
-    <t>10.6.132</t>
-  </si>
-  <si>
-    <t>14.6.194</t>
-  </si>
-  <si>
-    <t>15.6.211</t>
-  </si>
-  <si>
-    <t>16.6.255</t>
-  </si>
-  <si>
-    <t>17.6.289</t>
-  </si>
-  <si>
-    <t>Pyhta Rahima S.E M.M</t>
-  </si>
-  <si>
-    <t>Baiq Candra Herawati S.T M.M</t>
-  </si>
-  <si>
-    <t>Wahyu Kamil Syarifaturahman  M.Pd</t>
-  </si>
-  <si>
-    <t>Kartarina S.Kom M.Kom</t>
-  </si>
-  <si>
-    <t>Galih Hendro Martono M.Eng</t>
-  </si>
-  <si>
-    <t>Neny Sulistianingsih S.Kom M.Kom</t>
-  </si>
-  <si>
-    <t>Lalu Zazuli Azhar Mardedi S.Kom M.Kom</t>
-  </si>
-  <si>
-    <t>Muhammad Innuddin S.Kom M.Kom</t>
-  </si>
-  <si>
-    <t>phytarahima@universitasbumigora.ac.id</t>
-  </si>
-  <si>
-    <t>candrah@universitasbumigora.ac.id</t>
-  </si>
-  <si>
-    <t>wahyu.kamil@universitasbumigora.ac.id</t>
-  </si>
-  <si>
-    <t>kartarina.augustin@universitasbumigora.ac.id</t>
-  </si>
-  <si>
-    <t>galih.hendro@universitasbumigora.ac.id</t>
-  </si>
-  <si>
-    <t>neny.sulistianingsih@universitasbumigora.ac.id</t>
-  </si>
-  <si>
-    <t>zazuli@universitasbumigora.ac.id</t>
-  </si>
-  <si>
-    <t>inn@universitasbumigora.ac.id</t>
   </si>
 </sst>
 </file>
@@ -496,147 +427,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D9FBC6-A2BD-43CA-B99B-5D3D09CA9DC5}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.54296875" customWidth="1"/>
     <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>435436436</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7687796986</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>5668579</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4386943868</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>827038703</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>806058403</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>826118204</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>810087701</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>819078701</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>829108901</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>802078801</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>811129002</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
